--- a/14-Case02-HeThongDatVeMayBay.xlsx
+++ b/14-Case02-HeThongDatVeMayBay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF30FCC-43E7-48D5-9036-C2406EC14BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F2D2D-57DF-4070-8F0E-EFFF53DA08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -178,16 +178,13 @@
     <t>Viết đánh giá trang web</t>
   </si>
   <si>
-    <t>Xác định ưu tiên các chức năng ưu tiên làm trước + use case tổng quát + ERD</t>
-  </si>
-  <si>
-    <t>thiết kế giao diện + code database + start chart diagram</t>
-  </si>
-  <si>
-    <t>Nghiên cứu và tìm hiểu cầu khách hàng cần + sequence diagram</t>
-  </si>
-  <si>
     <t>Yên</t>
+  </si>
+  <si>
+    <t>Vẽ usecase xác định usecase</t>
+  </si>
+  <si>
+    <t>Vẽ activity</t>
   </si>
 </sst>
 </file>
@@ -467,6 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -482,10 +483,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -903,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:N42"/>
     </sheetView>
   </sheetViews>
@@ -915,646 +912,646 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1583,14 +1580,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1619,10 +1616,10 @@
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="19"/>
@@ -1695,7 +1692,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17:I18"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1827,13 +1824,26 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1943,7 +1953,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1961,18 +1971,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1986,10 +1996,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2028,7 +2038,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9">
         <f>SUM(C7:C11)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2039,36 +2049,36 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>34</v>
+      <c r="B7" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="32">
+        <v>34</v>
+      </c>
+      <c r="E7" s="27">
         <v>45916</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="27">
         <v>45930</v>
       </c>
       <c r="G7" s="19"/>
@@ -2080,17 +2090,21 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>36</v>
+      <c r="B8" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="27">
+        <v>45916</v>
+      </c>
+      <c r="F8" s="19">
+        <v>45930</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="9"/>
@@ -2100,41 +2114,69 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>35</v>
+      <c r="B9" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="27">
+        <v>45916</v>
+      </c>
+      <c r="F9" s="19">
+        <v>45930</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="27">
+        <v>45916</v>
+      </c>
+      <c r="F10" s="19">
+        <v>45930</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="27">
+        <v>45916</v>
+      </c>
+      <c r="F11" s="19">
+        <v>45930</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="9"/>
@@ -2165,16 +2207,16 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>

--- a/14-Case02-HeThongDatVeMayBay.xlsx
+++ b/14-Case02-HeThongDatVeMayBay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F2D2D-57DF-4070-8F0E-EFFF53DA08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED35C0-D0E2-4475-98A9-ACA8DDF757C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="798" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -154,27 +154,9 @@
     <t xml:space="preserve">	Tìm kiếm chuyến bay</t>
   </si>
   <si>
-    <t>Đặt vé và tạo mã xác nhận</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Thông báo trạng thái vé</t>
   </si>
   <si>
-    <t xml:space="preserve">	Gợi ý chuyến bay phù hợp</t>
-  </si>
-  <si>
-    <t>Đặt vé nhiều chặng</t>
-  </si>
-  <si>
-    <t>Lọc vé theo tiêu chí</t>
-  </si>
-  <si>
-    <t>Lưu vết giao dịch người dùng</t>
-  </si>
-  <si>
-    <t>Báo cáo doanh thu theo tuyến bay</t>
-  </si>
-  <si>
     <t>Viết đánh giá trang web</t>
   </si>
   <si>
@@ -185,6 +167,9 @@
   </si>
   <si>
     <t>Vẽ activity</t>
+  </si>
+  <si>
+    <t>Thông báo trạng thái vé</t>
   </si>
 </sst>
 </file>
@@ -1690,9 +1675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1719,9 +1704,7 @@
       <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1739,10 +1722,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1761,10 +1744,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -1773,77 +1756,36 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="13">
-        <v>3</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1951,9 +1893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21:C22"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2073,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E7" s="27">
         <v>45916</v>
@@ -2091,13 +2033,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="27">
         <v>45916</v>
@@ -2115,13 +2057,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="27">
         <v>45916</v>
@@ -2139,13 +2081,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="27">
         <v>45916</v>
@@ -2163,13 +2105,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="27">
         <v>45916</v>
